--- a/ChilwaBasin_DataAnalysis_032024/Dataset/ChilwaBasin_AgricultureClimateDataset_04052024.xlsx
+++ b/ChilwaBasin_DataAnalysis_032024/Dataset/ChilwaBasin_AgricultureClimateDataset_04052024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\OneDrive - York University\Desktop\Malawi\DI Work\Data Analysis\Food\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Documents\GitHub\ChilwaBasin\ChilwaBasin_DataAnalysis_032024\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B28AC35C-FE0C-4AED-8D32-911881713AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEE5252-6C65-42B8-AAAC-6E2059485AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{C89A1868-8892-4AF7-9BC8-1A55A47CDD85}"/>
   </bookViews>
@@ -598,7 +598,7 @@
   <dimension ref="A1:AN14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="AM15" sqref="AM15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -875,9 +875,6 @@
       <c r="AM2">
         <v>8726.4590000000007</v>
       </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
@@ -988,9 +985,6 @@
       <c r="AM3">
         <v>8776.2029999999995</v>
       </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
@@ -1100,9 +1094,6 @@
       </c>
       <c r="AM4">
         <v>3534.0469999999996</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.55000000000000004">

--- a/ChilwaBasin_DataAnalysis_032024/Dataset/ChilwaBasin_AgricultureClimateDataset_04052024.xlsx
+++ b/ChilwaBasin_DataAnalysis_032024/Dataset/ChilwaBasin_AgricultureClimateDataset_04052024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Documents\GitHub\ChilwaBasin\ChilwaBasin_DataAnalysis_032024\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEE5252-6C65-42B8-AAAC-6E2059485AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A7EC2D-01BD-4F59-8603-6D46C14EC59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{C89A1868-8892-4AF7-9BC8-1A55A47CDD85}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Year</t>
   </si>
@@ -156,13 +156,34 @@
   </si>
   <si>
     <t>UREATotal_T</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Dry</t>
+  </si>
+  <si>
+    <t>Wet</t>
+  </si>
+  <si>
+    <t>Extreme Dry</t>
+  </si>
+  <si>
+    <t>Extreme Wet</t>
+  </si>
+  <si>
+    <t>ClimateSatellite</t>
+  </si>
+  <si>
+    <t>ClimateStation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,8 +198,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +243,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -243,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -256,6 +290,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,1720 +632,1986 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AN14"/>
+  <dimension ref="A1:AP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM15" sqref="AM15"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="4.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.62890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.05078125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.3671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.83984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.05078125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.20703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.83984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.62890625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.05078125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1015625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.47265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.9453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.62890625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.05078125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.1015625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.47265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.9453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.62890625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.05078125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.1015625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.47265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.9453125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.47265625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.89453125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.9453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.3125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.41796875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="23.7890625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.9453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.62890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.3671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.05078125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.26171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.3671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.83984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.05078125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.20703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.83984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.62890625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.05078125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.47265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.9453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.62890625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.05078125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.47265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.9453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.62890625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.05078125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.47265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.9453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.47265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.89453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.9453125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.3125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.41796875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.7890625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.9453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2010</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2">
         <v>244.3</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>750.3</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>994.59999999999991</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>-0.18</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>-0.43</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>20.2</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>3.54</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>11.87</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>130</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>281</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>411</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>50731</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>69040</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>10025</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>15330</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>2083</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>2044.2139999999999</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>90143</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>133323</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>4846</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>7046</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>3869</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>3009.8670000000002</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>43801</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>79469</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>3863</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>5111</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>3126</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>3672.3780000000002</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <v>184675</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <v>281832</v>
       </c>
-      <c r="AJ2">
+      <c r="AL2">
         <v>18734</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
         <v>27487</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <v>9078</v>
       </c>
-      <c r="AM2">
+      <c r="AO2">
         <v>8726.4590000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2011</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3">
         <v>251.8</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>676.8</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>928.59999999999991</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>-0.31</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>19.2</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>29.9</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>24.549999999999997</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>59</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>167</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>226</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>53035</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>76875</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>10473</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>16086</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>2035</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>2038.92</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>88960</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>145718</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>4617</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>6618</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>3604</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>3070.0839999999998</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>44512</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>103312</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>4973</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>8272</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>3113</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>3667.1990000000001</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
         <v>186507</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <v>325905</v>
       </c>
-      <c r="AJ3">
+      <c r="AL3">
         <v>20063</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <v>30976</v>
       </c>
-      <c r="AL3">
+      <c r="AN3">
         <v>8752</v>
       </c>
-      <c r="AM3">
+      <c r="AO3">
         <v>8776.2029999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2012</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4">
         <v>149.5</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>390.6</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>540.1</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>-1.6</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>-0.64</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>19.8</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>29.6</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>24.700000000000003</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>69</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>113</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>182</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>52045</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>62451</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>9863</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>11730</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>1100</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>1020.535</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>86531</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>106493</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>3774</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>4296</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>1121</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>810.43100000000004</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>44826</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>93915</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <v>5020</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>8356</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>1760</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>1703.0809999999999</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <v>183402</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
         <v>262859</v>
       </c>
-      <c r="AJ4">
+      <c r="AL4">
         <v>18657</v>
       </c>
-      <c r="AK4">
+      <c r="AM4">
         <v>24382</v>
       </c>
-      <c r="AL4">
+      <c r="AN4">
         <v>3981</v>
       </c>
-      <c r="AM4">
+      <c r="AO4">
         <v>3534.0469999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>2013</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5">
         <v>331</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>768.09999999999991</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>1099.0999999999999</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>0.74</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.25</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>19.3</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>29.6</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>24.450000000000003</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>97</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>214.25</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>311.25</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>52148</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>70957</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>10277</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>11763</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>1481</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>1536.229</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>4050.9720000000002</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>84109</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>141169</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>4794</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>8409</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>3393</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>4175.5190000000002</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>5926.3810000000003</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>44362</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>127819</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>5388</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>11766</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>2160</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>2562.4720000000002</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>2944.09</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <v>180619</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <v>339945</v>
       </c>
-      <c r="AJ5">
+      <c r="AL5">
         <v>20459</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <v>31938</v>
       </c>
-      <c r="AL5">
+      <c r="AN5">
         <v>7034</v>
       </c>
-      <c r="AM5">
+      <c r="AO5">
         <v>8274.2200000000012</v>
       </c>
-      <c r="AN5">
+      <c r="AP5">
         <v>12921.443000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>2014</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
         <v>79.5</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>580.5</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>660</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>-1.52</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>-1.97</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>19.3</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>29.5</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>24.4</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>20</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>113</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>133</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>51671</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>76483</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>10762</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>14146</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>1453</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>1566.6310000000001</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>3372.17</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>84323</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>162654</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>4640</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>9182</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>3342</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>4003.8359999999998</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>5722.6189999999997</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>45303</v>
-      </c>
-      <c r="AB6">
-        <v>13389</v>
-      </c>
-      <c r="AC6">
-        <v>4530</v>
       </c>
       <c r="AD6">
         <v>13389</v>
       </c>
       <c r="AE6">
+        <v>4530</v>
+      </c>
+      <c r="AF6">
+        <v>13389</v>
+      </c>
+      <c r="AG6">
         <v>2107</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>2557.3980000000001</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>2835.5</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <v>181297</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <v>252526</v>
       </c>
-      <c r="AJ6">
+      <c r="AL6">
         <v>19932</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <v>36717</v>
       </c>
-      <c r="AL6">
+      <c r="AN6">
         <v>6902</v>
       </c>
-      <c r="AM6">
+      <c r="AO6">
         <v>8127.8649999999998</v>
       </c>
-      <c r="AN6">
+      <c r="AP6">
         <v>11930.289000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>2015</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
         <v>140</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>1073.5</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>1213.5</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>-0.75</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>-1.46</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>19.600000000000001</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>30.2</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>24.9</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>46.5</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>237</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>283.5</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>50825</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>34961</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>10491</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>11972</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>1426</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>1564.374</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>3314.93</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>82685</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>95387</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>3861</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>8930</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>3348</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>4011.2669999999998</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>5424.4279999999999</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>45075</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>84957</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <v>5590</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>10544</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>1640</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>1462.049</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <v>2765.15</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <v>178585</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <v>215305</v>
       </c>
-      <c r="AJ7">
+      <c r="AL7">
         <v>19942</v>
       </c>
-      <c r="AK7">
+      <c r="AM7">
         <v>31446</v>
       </c>
-      <c r="AL7">
+      <c r="AN7">
         <v>6414</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <v>7037.69</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <v>11504.508</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>2016</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
         <v>187.5</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>359.5</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>547</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>-0.73</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>-1.01</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>19.7</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>31.3</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>25.5</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>71</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>143</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>214</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>51656</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>26653</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>4989</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>3072</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>1182</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>974.38800000000003</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>2410.9499999999998</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>84739</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>79146</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>2140</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>1897</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>3084</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>3523.6559999999999</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>4684.8100000000004</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>45819</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>78568</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <v>4566</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>7426</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>1458</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>1745.2619999999999</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <v>1724.75</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <v>182214</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <v>184367</v>
       </c>
-      <c r="AJ8">
+      <c r="AL8">
         <v>11695</v>
       </c>
-      <c r="AK8">
+      <c r="AM8">
         <v>12395</v>
       </c>
-      <c r="AL8">
+      <c r="AN8">
         <v>5724</v>
       </c>
-      <c r="AM8">
+      <c r="AO8">
         <v>6243.3059999999996</v>
       </c>
-      <c r="AN8">
+      <c r="AP8">
         <v>8820.51</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>2017</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9">
         <v>190</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>646.79999999999995</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>836.8</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>-0.99</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>20.2</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>30.4</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>25.299999999999997</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>74</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>138</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>212</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>52340</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>65721</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>9465</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>10510</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>821</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>909</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>2569.9499999999998</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>85091</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>150176</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>2264</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>6234</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>3042</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>3500.7530000000002</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>3204.16</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>47133</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>124047</v>
       </c>
-      <c r="AC9">
+      <c r="AE9">
         <v>5510</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>15980</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>1439</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>1853.412</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <v>1677.72</v>
       </c>
-      <c r="AH9">
+      <c r="AJ9">
         <v>184564</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <v>339944</v>
       </c>
-      <c r="AJ9">
+      <c r="AL9">
         <v>17239</v>
       </c>
-      <c r="AK9">
+      <c r="AM9">
         <v>32724</v>
       </c>
-      <c r="AL9">
+      <c r="AN9">
         <v>5302</v>
       </c>
-      <c r="AM9">
+      <c r="AO9">
         <v>6263.1650000000009</v>
       </c>
-      <c r="AN9">
+      <c r="AP9">
         <v>7451.83</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>2018</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10">
         <v>271.5</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>453.3</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>724.8</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>-0.05</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>19.3</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>29.6</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>24.450000000000003</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>119</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>132</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>251</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>52454</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>47677</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>17378</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>20676</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>827</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>784.572</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>4162.6949999999997</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>79903</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>90485</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>4402</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>7509</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>2165</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>3214.7280000000001</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>3963.57</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>47661</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>79752</v>
       </c>
-      <c r="AC10">
+      <c r="AE10">
         <v>5510</v>
       </c>
-      <c r="AD10">
+      <c r="AF10">
         <v>15980</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>1646</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <v>1965.3689999999999</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <v>1990.25</v>
       </c>
-      <c r="AH10">
+      <c r="AJ10">
         <v>180018</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <v>217914</v>
       </c>
-      <c r="AJ10">
+      <c r="AL10">
         <v>27290</v>
       </c>
-      <c r="AK10">
+      <c r="AM10">
         <v>44165</v>
       </c>
-      <c r="AL10">
+      <c r="AN10">
         <v>4638</v>
       </c>
-      <c r="AM10">
+      <c r="AO10">
         <v>5964.6689999999999</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <v>10116.514999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>2019</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>545</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>545</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>-1.94</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>-2.2200000000000002</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>19.2</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>29.1</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>24.15</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>0</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>301</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>301</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>53474</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>55094</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>9986</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>11861</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>845</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>1053.2840000000001</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>2173.46</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>83014</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>119397</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>4567</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>8123</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>1944</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>2968.2339999999999</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>4316.8999999999996</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <v>49767</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>132695</v>
       </c>
-      <c r="AC11">
+      <c r="AE11">
         <v>6302</v>
       </c>
-      <c r="AD11">
+      <c r="AF11">
         <v>21895</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>1765</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>2445.8209999999999</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <v>1799.05</v>
       </c>
-      <c r="AH11">
+      <c r="AJ11">
         <v>186255</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <v>307186</v>
       </c>
-      <c r="AJ11">
+      <c r="AL11">
         <v>20855</v>
       </c>
-      <c r="AK11">
+      <c r="AM11">
         <v>41879</v>
       </c>
-      <c r="AL11">
+      <c r="AN11">
         <v>4554</v>
       </c>
-      <c r="AM11">
+      <c r="AO11">
         <v>6467.3389999999999</v>
       </c>
-      <c r="AN11">
+      <c r="AP11">
         <v>8289.41</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>2020</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12">
         <v>238</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>731.5</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>969.5</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>-0.15</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>-0.05</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>20.2</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>30.5</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>25.35</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>80</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>165</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>245</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>54493</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>70588</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>10120</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>10542</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>162</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>163.22399999999999</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>9051.2000000000007</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>84841</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>148650</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>4715</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>7801</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>1944</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <v>2806.1469999999999</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>8180.3649999999998</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
         <v>50843</v>
       </c>
-      <c r="AB12">
+      <c r="AD12">
         <v>147462</v>
       </c>
-      <c r="AC12">
+      <c r="AE12">
         <v>6476</v>
       </c>
-      <c r="AD12">
+      <c r="AF12">
         <v>13147</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
         <v>1624</v>
       </c>
-      <c r="AF12">
+      <c r="AH12">
         <v>2222.989</v>
       </c>
-      <c r="AG12">
+      <c r="AI12">
         <v>5247.58</v>
       </c>
-      <c r="AH12">
+      <c r="AJ12">
         <v>190177</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
         <v>366700</v>
       </c>
-      <c r="AJ12">
+      <c r="AL12">
         <v>21311</v>
       </c>
-      <c r="AK12">
+      <c r="AM12">
         <v>31490</v>
       </c>
-      <c r="AL12">
+      <c r="AN12">
         <v>3730</v>
       </c>
-      <c r="AM12">
+      <c r="AO12">
         <v>5192.3600000000006</v>
       </c>
-      <c r="AN12">
+      <c r="AP12">
         <v>22479.145000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>2021</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
         <v>260.5</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>643.79999999999995</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>904.3</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>0.65</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>-0.32</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>20.6</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>30.8</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>25.700000000000003</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>60</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>173</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>233</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>57079</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>84634</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>10114</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>12280</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>913</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>1121.8810000000001</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>9201.2999999999993</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>88603</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>177298</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>4872</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>9439</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>1815</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>2943.6010000000001</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>9205.5470000000005</v>
       </c>
-      <c r="AA13">
+      <c r="AC13">
         <v>51402</v>
       </c>
-      <c r="AB13">
+      <c r="AD13">
         <v>189573</v>
       </c>
-      <c r="AC13">
+      <c r="AE13">
         <v>6613</v>
       </c>
-      <c r="AD13">
+      <c r="AF13">
         <v>14717</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
         <v>1218</v>
       </c>
-      <c r="AF13">
+      <c r="AH13">
         <v>1853.3119999999999</v>
       </c>
-      <c r="AG13">
+      <c r="AI13">
         <v>2692.1</v>
       </c>
-      <c r="AH13">
+      <c r="AJ13">
         <v>197084</v>
       </c>
-      <c r="AI13">
+      <c r="AK13">
         <v>451505</v>
       </c>
-      <c r="AJ13">
+      <c r="AL13">
         <v>21599</v>
       </c>
-      <c r="AK13">
+      <c r="AM13">
         <v>36436</v>
       </c>
-      <c r="AL13">
+      <c r="AN13">
         <v>3946</v>
       </c>
-      <c r="AM13">
+      <c r="AO13">
         <v>5918.7939999999999</v>
       </c>
-      <c r="AN13">
+      <c r="AP13">
         <v>21098.947</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>2022</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
         <v>186</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>-0.31</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>-1.04</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>22.8</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>33</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>27.9</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>134</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>407.5</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>541.5</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>57796</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>68955</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>10011</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>10604</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>852</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>997.05600000000004</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>5496.11</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>88183</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>137867</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>4538</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>12085</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>1815</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>2663.1860000000001</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <v>3833.8</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <v>49866</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <v>140826</v>
       </c>
-      <c r="AC14">
+      <c r="AE14">
         <v>6545</v>
       </c>
-      <c r="AD14">
+      <c r="AF14">
         <v>11417</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <v>1153</v>
       </c>
-      <c r="AF14">
+      <c r="AH14">
         <v>1519.942</v>
       </c>
-      <c r="AG14">
+      <c r="AI14">
         <v>1843.6</v>
       </c>
-      <c r="AH14">
+      <c r="AJ14">
         <v>195845</v>
       </c>
-      <c r="AI14">
+      <c r="AK14">
         <v>347648</v>
       </c>
-      <c r="AJ14">
+      <c r="AL14">
         <v>21094</v>
       </c>
-      <c r="AK14">
+      <c r="AM14">
         <v>34106</v>
       </c>
-      <c r="AL14">
+      <c r="AN14">
         <v>3820</v>
       </c>
-      <c r="AM14">
+      <c r="AO14">
         <v>5180.1840000000002</v>
       </c>
-      <c r="AN14">
+      <c r="AP14">
         <v>11173.51</v>
       </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ChilwaBasin_DataAnalysis_032024/Dataset/ChilwaBasin_AgricultureClimateDataset_04052024.xlsx
+++ b/ChilwaBasin_DataAnalysis_032024/Dataset/ChilwaBasin_AgricultureClimateDataset_04052024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Documents\GitHub\ChilwaBasin\ChilwaBasin_DataAnalysis_032024\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A7EC2D-01BD-4F59-8603-6D46C14EC59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0006FC1C-FF06-41C8-8C43-41311D1F728E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{C89A1868-8892-4AF7-9BC8-1A55A47CDD85}"/>
   </bookViews>

--- a/ChilwaBasin_DataAnalysis_032024/Dataset/ChilwaBasin_AgricultureClimateDataset_04052024.xlsx
+++ b/ChilwaBasin_DataAnalysis_032024/Dataset/ChilwaBasin_AgricultureClimateDataset_04052024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Documents\GitHub\ChilwaBasin\ChilwaBasin_DataAnalysis_032024\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEE5252-6C65-42B8-AAAC-6E2059485AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0006FC1C-FF06-41C8-8C43-41311D1F728E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{C89A1868-8892-4AF7-9BC8-1A55A47CDD85}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Year</t>
   </si>
@@ -156,13 +156,34 @@
   </si>
   <si>
     <t>UREATotal_T</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Dry</t>
+  </si>
+  <si>
+    <t>Wet</t>
+  </si>
+  <si>
+    <t>Extreme Dry</t>
+  </si>
+  <si>
+    <t>Extreme Wet</t>
+  </si>
+  <si>
+    <t>ClimateSatellite</t>
+  </si>
+  <si>
+    <t>ClimateStation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,8 +198,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +243,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -243,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -256,6 +290,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,1720 +632,1986 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AN14"/>
+  <dimension ref="A1:AP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM15" sqref="AM15"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="4.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.62890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.05078125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.3671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.83984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.05078125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.20703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.83984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.62890625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.05078125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1015625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.47265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.9453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.62890625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.05078125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.1015625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.47265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.9453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.62890625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.05078125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.1015625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.47265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.9453125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.47265625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.89453125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.9453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.3125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.41796875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="23.7890625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.9453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.62890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.3671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.05078125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.26171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.3671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.83984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.05078125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.20703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.83984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.62890625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.05078125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.47265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.9453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.62890625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.05078125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.47265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.9453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.62890625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.05078125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.47265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.9453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.47265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.89453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.9453125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.3125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.41796875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.7890625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.9453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2010</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2">
         <v>244.3</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>750.3</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>994.59999999999991</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>-0.18</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>-0.43</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>20.2</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>3.54</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>11.87</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>130</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>281</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>411</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>50731</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>69040</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>10025</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>15330</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>2083</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>2044.2139999999999</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>90143</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>133323</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>4846</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>7046</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>3869</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>3009.8670000000002</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>43801</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>79469</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>3863</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>5111</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>3126</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>3672.3780000000002</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <v>184675</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <v>281832</v>
       </c>
-      <c r="AJ2">
+      <c r="AL2">
         <v>18734</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
         <v>27487</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <v>9078</v>
       </c>
-      <c r="AM2">
+      <c r="AO2">
         <v>8726.4590000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2011</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3">
         <v>251.8</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>676.8</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>928.59999999999991</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>-0.31</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>19.2</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>29.9</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>24.549999999999997</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>59</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>167</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>226</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>53035</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>76875</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>10473</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>16086</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>2035</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>2038.92</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>88960</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>145718</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>4617</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>6618</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>3604</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>3070.0839999999998</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>44512</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>103312</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>4973</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>8272</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>3113</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>3667.1990000000001</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
         <v>186507</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <v>325905</v>
       </c>
-      <c r="AJ3">
+      <c r="AL3">
         <v>20063</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <v>30976</v>
       </c>
-      <c r="AL3">
+      <c r="AN3">
         <v>8752</v>
       </c>
-      <c r="AM3">
+      <c r="AO3">
         <v>8776.2029999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2012</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4">
         <v>149.5</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>390.6</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>540.1</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>-1.6</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>-0.64</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>19.8</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>29.6</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>24.700000000000003</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>69</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>113</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>182</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>52045</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>62451</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>9863</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>11730</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>1100</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>1020.535</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>86531</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>106493</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>3774</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>4296</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>1121</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>810.43100000000004</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>44826</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>93915</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <v>5020</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>8356</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>1760</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>1703.0809999999999</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <v>183402</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
         <v>262859</v>
       </c>
-      <c r="AJ4">
+      <c r="AL4">
         <v>18657</v>
       </c>
-      <c r="AK4">
+      <c r="AM4">
         <v>24382</v>
       </c>
-      <c r="AL4">
+      <c r="AN4">
         <v>3981</v>
       </c>
-      <c r="AM4">
+      <c r="AO4">
         <v>3534.0469999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>2013</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5">
         <v>331</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>768.09999999999991</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>1099.0999999999999</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>0.74</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.25</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>19.3</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>29.6</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>24.450000000000003</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>97</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>214.25</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>311.25</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>52148</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>70957</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>10277</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>11763</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>1481</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>1536.229</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>4050.9720000000002</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>84109</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>141169</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>4794</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>8409</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>3393</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>4175.5190000000002</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>5926.3810000000003</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>44362</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>127819</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>5388</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>11766</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>2160</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>2562.4720000000002</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>2944.09</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <v>180619</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <v>339945</v>
       </c>
-      <c r="AJ5">
+      <c r="AL5">
         <v>20459</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <v>31938</v>
       </c>
-      <c r="AL5">
+      <c r="AN5">
         <v>7034</v>
       </c>
-      <c r="AM5">
+      <c r="AO5">
         <v>8274.2200000000012</v>
       </c>
-      <c r="AN5">
+      <c r="AP5">
         <v>12921.443000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>2014</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
         <v>79.5</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>580.5</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>660</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>-1.52</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>-1.97</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>19.3</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>29.5</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>24.4</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>20</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>113</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>133</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>51671</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>76483</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>10762</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>14146</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>1453</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>1566.6310000000001</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>3372.17</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>84323</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>162654</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>4640</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>9182</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>3342</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>4003.8359999999998</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>5722.6189999999997</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>45303</v>
-      </c>
-      <c r="AB6">
-        <v>13389</v>
-      </c>
-      <c r="AC6">
-        <v>4530</v>
       </c>
       <c r="AD6">
         <v>13389</v>
       </c>
       <c r="AE6">
+        <v>4530</v>
+      </c>
+      <c r="AF6">
+        <v>13389</v>
+      </c>
+      <c r="AG6">
         <v>2107</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>2557.3980000000001</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>2835.5</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <v>181297</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <v>252526</v>
       </c>
-      <c r="AJ6">
+      <c r="AL6">
         <v>19932</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <v>36717</v>
       </c>
-      <c r="AL6">
+      <c r="AN6">
         <v>6902</v>
       </c>
-      <c r="AM6">
+      <c r="AO6">
         <v>8127.8649999999998</v>
       </c>
-      <c r="AN6">
+      <c r="AP6">
         <v>11930.289000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>2015</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
         <v>140</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>1073.5</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>1213.5</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>-0.75</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>-1.46</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>19.600000000000001</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>30.2</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>24.9</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>46.5</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>237</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>283.5</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>50825</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>34961</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>10491</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>11972</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>1426</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>1564.374</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>3314.93</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>82685</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>95387</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>3861</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>8930</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>3348</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>4011.2669999999998</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>5424.4279999999999</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>45075</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>84957</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <v>5590</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>10544</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>1640</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>1462.049</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <v>2765.15</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <v>178585</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <v>215305</v>
       </c>
-      <c r="AJ7">
+      <c r="AL7">
         <v>19942</v>
       </c>
-      <c r="AK7">
+      <c r="AM7">
         <v>31446</v>
       </c>
-      <c r="AL7">
+      <c r="AN7">
         <v>6414</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <v>7037.69</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <v>11504.508</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>2016</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
         <v>187.5</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>359.5</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>547</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>-0.73</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>-1.01</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>19.7</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>31.3</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>25.5</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>71</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>143</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>214</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>51656</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>26653</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>4989</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>3072</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>1182</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>974.38800000000003</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>2410.9499999999998</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>84739</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>79146</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>2140</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>1897</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>3084</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>3523.6559999999999</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>4684.8100000000004</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>45819</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>78568</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <v>4566</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>7426</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>1458</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>1745.2619999999999</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <v>1724.75</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <v>182214</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <v>184367</v>
       </c>
-      <c r="AJ8">
+      <c r="AL8">
         <v>11695</v>
       </c>
-      <c r="AK8">
+      <c r="AM8">
         <v>12395</v>
       </c>
-      <c r="AL8">
+      <c r="AN8">
         <v>5724</v>
       </c>
-      <c r="AM8">
+      <c r="AO8">
         <v>6243.3059999999996</v>
       </c>
-      <c r="AN8">
+      <c r="AP8">
         <v>8820.51</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>2017</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9">
         <v>190</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>646.79999999999995</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>836.8</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>-0.99</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>20.2</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>30.4</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>25.299999999999997</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>74</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>138</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>212</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>52340</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>65721</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>9465</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>10510</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>821</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>909</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>2569.9499999999998</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>85091</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>150176</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>2264</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>6234</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>3042</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>3500.7530000000002</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>3204.16</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>47133</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>124047</v>
       </c>
-      <c r="AC9">
+      <c r="AE9">
         <v>5510</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>15980</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>1439</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>1853.412</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <v>1677.72</v>
       </c>
-      <c r="AH9">
+      <c r="AJ9">
         <v>184564</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <v>339944</v>
       </c>
-      <c r="AJ9">
+      <c r="AL9">
         <v>17239</v>
       </c>
-      <c r="AK9">
+      <c r="AM9">
         <v>32724</v>
       </c>
-      <c r="AL9">
+      <c r="AN9">
         <v>5302</v>
       </c>
-      <c r="AM9">
+      <c r="AO9">
         <v>6263.1650000000009</v>
       </c>
-      <c r="AN9">
+      <c r="AP9">
         <v>7451.83</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>2018</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10">
         <v>271.5</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>453.3</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>724.8</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>-0.05</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>19.3</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>29.6</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>24.450000000000003</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>119</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>132</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>251</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>52454</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>47677</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>17378</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>20676</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>827</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>784.572</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>4162.6949999999997</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>79903</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>90485</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>4402</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>7509</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>2165</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>3214.7280000000001</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>3963.57</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>47661</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>79752</v>
       </c>
-      <c r="AC10">
+      <c r="AE10">
         <v>5510</v>
       </c>
-      <c r="AD10">
+      <c r="AF10">
         <v>15980</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>1646</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <v>1965.3689999999999</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <v>1990.25</v>
       </c>
-      <c r="AH10">
+      <c r="AJ10">
         <v>180018</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <v>217914</v>
       </c>
-      <c r="AJ10">
+      <c r="AL10">
         <v>27290</v>
       </c>
-      <c r="AK10">
+      <c r="AM10">
         <v>44165</v>
       </c>
-      <c r="AL10">
+      <c r="AN10">
         <v>4638</v>
       </c>
-      <c r="AM10">
+      <c r="AO10">
         <v>5964.6689999999999</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <v>10116.514999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>2019</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>545</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>545</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>-1.94</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>-2.2200000000000002</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>19.2</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>29.1</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>24.15</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>0</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>301</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>301</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>53474</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>55094</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>9986</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>11861</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>845</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>1053.2840000000001</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>2173.46</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>83014</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>119397</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>4567</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>8123</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>1944</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>2968.2339999999999</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>4316.8999999999996</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <v>49767</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>132695</v>
       </c>
-      <c r="AC11">
+      <c r="AE11">
         <v>6302</v>
       </c>
-      <c r="AD11">
+      <c r="AF11">
         <v>21895</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>1765</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>2445.8209999999999</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <v>1799.05</v>
       </c>
-      <c r="AH11">
+      <c r="AJ11">
         <v>186255</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <v>307186</v>
       </c>
-      <c r="AJ11">
+      <c r="AL11">
         <v>20855</v>
       </c>
-      <c r="AK11">
+      <c r="AM11">
         <v>41879</v>
       </c>
-      <c r="AL11">
+      <c r="AN11">
         <v>4554</v>
       </c>
-      <c r="AM11">
+      <c r="AO11">
         <v>6467.3389999999999</v>
       </c>
-      <c r="AN11">
+      <c r="AP11">
         <v>8289.41</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>2020</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12">
         <v>238</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>731.5</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>969.5</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>-0.15</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>-0.05</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>20.2</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>30.5</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>25.35</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>80</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>165</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>245</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>54493</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>70588</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>10120</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>10542</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>162</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>163.22399999999999</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>9051.2000000000007</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>84841</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>148650</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>4715</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>7801</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>1944</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <v>2806.1469999999999</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>8180.3649999999998</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
         <v>50843</v>
       </c>
-      <c r="AB12">
+      <c r="AD12">
         <v>147462</v>
       </c>
-      <c r="AC12">
+      <c r="AE12">
         <v>6476</v>
       </c>
-      <c r="AD12">
+      <c r="AF12">
         <v>13147</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
         <v>1624</v>
       </c>
-      <c r="AF12">
+      <c r="AH12">
         <v>2222.989</v>
       </c>
-      <c r="AG12">
+      <c r="AI12">
         <v>5247.58</v>
       </c>
-      <c r="AH12">
+      <c r="AJ12">
         <v>190177</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
         <v>366700</v>
       </c>
-      <c r="AJ12">
+      <c r="AL12">
         <v>21311</v>
       </c>
-      <c r="AK12">
+      <c r="AM12">
         <v>31490</v>
       </c>
-      <c r="AL12">
+      <c r="AN12">
         <v>3730</v>
       </c>
-      <c r="AM12">
+      <c r="AO12">
         <v>5192.3600000000006</v>
       </c>
-      <c r="AN12">
+      <c r="AP12">
         <v>22479.145000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>2021</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
         <v>260.5</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>643.79999999999995</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>904.3</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>0.65</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>-0.32</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>20.6</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>30.8</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>25.700000000000003</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>60</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>173</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>233</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>57079</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>84634</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>10114</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>12280</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>913</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>1121.8810000000001</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>9201.2999999999993</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>88603</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>177298</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>4872</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>9439</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>1815</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>2943.6010000000001</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>9205.5470000000005</v>
       </c>
-      <c r="AA13">
+      <c r="AC13">
         <v>51402</v>
       </c>
-      <c r="AB13">
+      <c r="AD13">
         <v>189573</v>
       </c>
-      <c r="AC13">
+      <c r="AE13">
         <v>6613</v>
       </c>
-      <c r="AD13">
+      <c r="AF13">
         <v>14717</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
         <v>1218</v>
       </c>
-      <c r="AF13">
+      <c r="AH13">
         <v>1853.3119999999999</v>
       </c>
-      <c r="AG13">
+      <c r="AI13">
         <v>2692.1</v>
       </c>
-      <c r="AH13">
+      <c r="AJ13">
         <v>197084</v>
       </c>
-      <c r="AI13">
+      <c r="AK13">
         <v>451505</v>
       </c>
-      <c r="AJ13">
+      <c r="AL13">
         <v>21599</v>
       </c>
-      <c r="AK13">
+      <c r="AM13">
         <v>36436</v>
       </c>
-      <c r="AL13">
+      <c r="AN13">
         <v>3946</v>
       </c>
-      <c r="AM13">
+      <c r="AO13">
         <v>5918.7939999999999</v>
       </c>
-      <c r="AN13">
+      <c r="AP13">
         <v>21098.947</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>2022</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
         <v>186</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>-0.31</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>-1.04</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>22.8</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>33</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>27.9</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>134</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>407.5</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>541.5</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>57796</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>68955</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>10011</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>10604</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>852</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>997.05600000000004</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>5496.11</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>88183</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>137867</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>4538</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>12085</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>1815</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>2663.1860000000001</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <v>3833.8</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <v>49866</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <v>140826</v>
       </c>
-      <c r="AC14">
+      <c r="AE14">
         <v>6545</v>
       </c>
-      <c r="AD14">
+      <c r="AF14">
         <v>11417</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <v>1153</v>
       </c>
-      <c r="AF14">
+      <c r="AH14">
         <v>1519.942</v>
       </c>
-      <c r="AG14">
+      <c r="AI14">
         <v>1843.6</v>
       </c>
-      <c r="AH14">
+      <c r="AJ14">
         <v>195845</v>
       </c>
-      <c r="AI14">
+      <c r="AK14">
         <v>347648</v>
       </c>
-      <c r="AJ14">
+      <c r="AL14">
         <v>21094</v>
       </c>
-      <c r="AK14">
+      <c r="AM14">
         <v>34106</v>
       </c>
-      <c r="AL14">
+      <c r="AN14">
         <v>3820</v>
       </c>
-      <c r="AM14">
+      <c r="AO14">
         <v>5180.1840000000002</v>
       </c>
-      <c r="AN14">
+      <c r="AP14">
         <v>11173.51</v>
       </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ChilwaBasin_DataAnalysis_032024/Dataset/ChilwaBasin_AgricultureClimateDataset_04052024.xlsx
+++ b/ChilwaBasin_DataAnalysis_032024/Dataset/ChilwaBasin_AgricultureClimateDataset_04052024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Documents\GitHub\ChilwaBasin\ChilwaBasin_DataAnalysis_032024\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0006FC1C-FF06-41C8-8C43-41311D1F728E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34106FDA-4B1E-47F3-BEE5-D3B276688C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{C89A1868-8892-4AF7-9BC8-1A55A47CDD85}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Year</t>
   </si>
@@ -156,21 +156,6 @@
   </si>
   <si>
     <t>UREATotal_T</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Dry</t>
-  </si>
-  <si>
-    <t>Wet</t>
-  </si>
-  <si>
-    <t>Extreme Dry</t>
-  </si>
-  <si>
-    <t>Extreme Wet</t>
   </si>
   <si>
     <t>ClimateSatellite</t>
@@ -635,7 +620,7 @@
   <dimension ref="A1:AP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -688,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -815,11 +800,11 @@
       <c r="A2">
         <v>2010</v>
       </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
       </c>
       <c r="D2">
         <v>244.3</v>
@@ -931,11 +916,11 @@
       <c r="A3">
         <v>2011</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
       </c>
       <c r="D3">
         <v>251.8</v>
@@ -1047,11 +1032,11 @@
       <c r="A4">
         <v>2012</v>
       </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
       <c r="D4">
         <v>149.5</v>
@@ -1163,11 +1148,11 @@
       <c r="A5">
         <v>2013</v>
       </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
       </c>
       <c r="D5">
         <v>331</v>
@@ -1291,11 +1276,11 @@
       <c r="A6">
         <v>2014</v>
       </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
       </c>
       <c r="D6">
         <v>79.5</v>
@@ -1419,11 +1404,11 @@
       <c r="A7">
         <v>2015</v>
       </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
       </c>
       <c r="D7">
         <v>140</v>
@@ -1547,11 +1532,11 @@
       <c r="A8">
         <v>2016</v>
       </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
       </c>
       <c r="D8">
         <v>187.5</v>
@@ -1675,11 +1660,11 @@
       <c r="A9">
         <v>2017</v>
       </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
       </c>
       <c r="D9">
         <v>190</v>
@@ -1803,11 +1788,11 @@
       <c r="A10">
         <v>2018</v>
       </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="D10">
         <v>271.5</v>
@@ -1931,8 +1916,8 @@
       <c r="A11">
         <v>2019</v>
       </c>
-      <c r="B11" t="s">
-        <v>44</v>
+      <c r="B11">
+        <v>5</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2056,8 +2041,8 @@
       <c r="A12">
         <v>2020</v>
       </c>
-      <c r="B12" t="s">
-        <v>43</v>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="D12">
         <v>238</v>
@@ -2181,8 +2166,8 @@
       <c r="A13">
         <v>2021</v>
       </c>
-      <c r="B13" t="s">
-        <v>42</v>
+      <c r="B13">
+        <v>4</v>
       </c>
       <c r="D13">
         <v>260.5</v>
@@ -2306,8 +2291,8 @@
       <c r="A14">
         <v>2022</v>
       </c>
-      <c r="B14" t="s">
-        <v>44</v>
+      <c r="B14">
+        <v>5</v>
       </c>
       <c r="D14">
         <v>186</v>
